--- a/spreadsheet-examples/spreadsheet-libraries/SAP Cloud ALM - Library Elements Template.xlsx
+++ b/spreadsheet-examples/spreadsheet-libraries/SAP Cloud ALM - Library Elements Template.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1306C00A-D54A-924E-B5D9-2F91F20DCCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0F113E-AE80-8D4C-8092-86594759C3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5620" yWindow="3260" windowWidth="45620" windowHeight="21740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20360" yWindow="5720" windowWidth="51620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Library Elements" sheetId="1" r:id="rId1"/>
     <sheet name="Application Types" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Library Elements'!$A$1:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Library Elements'!$A$1:$H$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Title</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>SAP S/4HANA Cloud</t>
+  </si>
+  <si>
+    <t>System Group</t>
   </si>
 </sst>
 </file>
@@ -496,28 +499,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BN11"/>
+  <dimension ref="A1:BO11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27" style="3" customWidth="1"/>
-    <col min="7" max="7" width="32" style="3" customWidth="1"/>
-    <col min="8" max="8" width="47.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="24" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="3"/>
+    <col min="2" max="3" width="20.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27" style="3" customWidth="1"/>
+    <col min="8" max="8" width="32" style="3" customWidth="1"/>
+    <col min="9" max="9" width="47.1640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="24" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:67" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -525,27 +528,29 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -586,46 +591,47 @@
       <c r="AV1" s="3"/>
       <c r="AW1" s="3"/>
       <c r="AX1" s="3"/>
-    </row>
-    <row r="2" spans="1:66" ht="17" x14ac:dyDescent="0.2">
+      <c r="AY1" s="3"/>
+    </row>
+    <row r="2" spans="1:67" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="Z11" s="2"/>
+    <row r="11" spans="1:67" x14ac:dyDescent="0.2">
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
@@ -666,12 +672,13 @@
       <c r="BL11" s="2"/>
       <c r="BM11" s="2"/>
       <c r="BN11" s="2"/>
+      <c r="BO11" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{5B726951-0870-D443-B627-082353F706C6}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{17C6F449-0C5C-C14D-87D0-3AC320661E77}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{5B726951-0870-D443-B627-082353F706C6}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{17C6F449-0C5C-C14D-87D0-3AC320661E77}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
